--- a/PythonWeek4/example_xlsx.xlsx
+++ b/PythonWeek4/example_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\CrashCourse - Week 4\Commercial &amp; EA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\katacoda-scenarios\PythonWeek4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B9920-926D-41FC-A359-F78933F87B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB33B5F5-A633-4F85-9CED-1DD4EF6D2E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10755" yWindow="0" windowWidth="10155" windowHeight="11385" xr2:uid="{988DC814-BBCA-4558-AF71-9C21D01BD058}"/>
+    <workbookView xWindow="7560" yWindow="3240" windowWidth="14400" windowHeight="11385" xr2:uid="{988DC814-BBCA-4558-AF71-9C21D01BD058}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,19 +437,19 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:E2" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,15 +458,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:E31" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -487,11 +487,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,19 +500,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,19 +521,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,19 +542,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
@@ -571,11 +571,11 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,19 +584,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,11 +605,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,11 +626,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
@@ -647,19 +647,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,19 +668,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,15 +693,15 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,15 +710,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
@@ -735,15 +735,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,19 +752,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,19 +773,19 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,19 +794,19 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,19 +815,19 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,19 +836,19 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,19 +857,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,19 +878,19 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,19 +899,19 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,19 +920,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,11 +941,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,19 +962,19 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,15 +987,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
@@ -1033,11 +1033,11 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,19 +1046,19 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
